--- a/example_data/EPA/label_corrected/060063-00064-20180103_2018-12-08_131802.xlsx
+++ b/example_data/EPA/label_corrected/060063-00064-20180103_2018-12-08_131802.xlsx
@@ -987,7 +987,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>93_Referral_Statement</t>
+          <t>93_referral_statement</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>18_Hazards_to_Humans_and_Domestic_Animals</t>
+          <t>18_hazards_to_humans_and_domestic_animals</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -1107,7 +1107,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Env warning - species || Application instructions</t>
+          <t>application instructions || env warning - species</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -1252,7 +1252,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Env warning - water</t>
+          <t>env warning - water</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -1291,7 +1291,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Off Target Movement || Env warning - water</t>
+          <t>env warning - water || off target movement</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -1328,7 +1328,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Safety Procedures</t>
+          <t>safety procedures</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -1379,7 +1379,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -1407,7 +1407,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>32_Physical_and_Chemical_Hazards</t>
+          <t>32_physical_and_chemical_hazards</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -1528,7 +1528,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
@@ -1570,7 +1570,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
@@ -1613,7 +1613,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>135_Product_Information</t>
+          <t>135_product_information</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -1968,7 +1968,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
@@ -1999,7 +1999,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
@@ -2086,7 +2086,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
@@ -2119,7 +2119,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
@@ -2176,7 +2176,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Off Target Movement || Use Restrictions</t>
+          <t>use restrictions || off target movement</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
@@ -2246,7 +2246,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
@@ -2276,7 +2276,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
@@ -2314,7 +2314,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
@@ -2351,7 +2351,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
@@ -2383,7 +2383,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>172_Sensitive_Areas</t>
+          <t>172_sensitive_areas</t>
         </is>
       </c>
       <c r="G62" t="inlineStr"/>
@@ -2439,7 +2439,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G63" t="inlineStr"/>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Irrigation</t>
+          <t>irrigation</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
@@ -2592,7 +2592,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
@@ -2720,7 +2720,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G70" t="inlineStr"/>
@@ -2784,7 +2784,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G72" t="inlineStr"/>
@@ -2814,7 +2814,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Safety Procedures</t>
+          <t>safety procedures</t>
         </is>
       </c>
       <c r="G73" t="inlineStr"/>
@@ -3917,7 +3917,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G104" t="inlineStr"/>
@@ -4002,7 +4002,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G107" t="inlineStr"/>
@@ -4035,7 +4035,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G108" t="inlineStr"/>
@@ -4154,7 +4154,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G111" t="inlineStr"/>
@@ -4237,7 +4237,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G113" t="inlineStr"/>
@@ -4355,7 +4355,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G117" t="inlineStr"/>
@@ -4552,7 +4552,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G123" t="inlineStr"/>
@@ -4603,7 +4603,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G124" t="inlineStr"/>
@@ -4684,7 +4684,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G126" t="inlineStr"/>
@@ -4772,7 +4772,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>154_Pesticide_Storage</t>
+          <t>154_pesticide_storage</t>
         </is>
       </c>
       <c r="G129" t="inlineStr"/>
